--- a/src/main/resources/testdata/Check_DeleteButtonDisabledInGF_WithEvidence.xlsx
+++ b/src/main/resources/testdata/Check_DeleteButtonDisabledInGF_WithEvidence.xlsx
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>

--- a/src/main/resources/testdata/Check_DeleteButtonDisabledInGF_WithEvidence.xlsx
+++ b/src/main/resources/testdata/Check_DeleteButtonDisabledInGF_WithEvidence.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Data#</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Genetic Feature</t>
   </si>
   <si>
-    <t>sequence</t>
-  </si>
-  <si>
     <t>CA119664-CDNA//</t>
   </si>
   <si>
@@ -111,82 +108,35 @@
     <t>ProteinGiNo</t>
   </si>
   <si>
-    <t>proteinSymbol</t>
-  </si>
-  <si>
-    <t>proteinName</t>
-  </si>
-  <si>
-    <t>proteinSynonymsId</t>
-  </si>
-  <si>
-    <t>proteinDescription</t>
-  </si>
-  <si>
-    <t>orientationGD</t>
-  </si>
-  <si>
-    <t>sourceGS</t>
-  </si>
-  <si>
-    <t>accessionNoGS</t>
-  </si>
-  <si>
-    <t>1 caagtgccac tggctactag tgcaagtatg gctcgggtct ctgccaatgc agttgcactt
-       61 gttgcactcg tctccgttct tctcacgtat ggctgctgcg cccagtcgcc gctcaactac
-      121 accggctcct tggccaaatc ctccaaggct agctggtcat ggctccctgc caaggccaca
-      181 tggtacggcg cgcctaccgg cgccggtccc gatgacaacg gtggtgcttg cggctacaag
-      241 cacactaacc agtacccgtt catgtccatg acttcctgcg gcaacgagcc cctgttcaag
-      301 gacggcatgg gctgcggcgc ctgctaccag atacgatgcg tcaataacaa ggcctgctcc
-      361 ggcaagccgg agacggtcat gatcaccgac atgaactact accctgtggg caagtaccat
-      421 ttcgacctca gcggcacggc gttcggcgcc atggcgaagc ccggccagaa cgacaagctc
-      481 cgccacgccg gcattatcga catccagttc caaagggtgc catgcaatca tccgggcttg
-      541 aacgtgaact tccaggtcga gcggggctcc aaccccaact acctggccgt gctggtggag
-      601 ttcgcgaacc gggagggcac cgtggtgcag atggacctca tggagtcaag gaacggccgc
-      661 ccgacggggt actggacggc gatgcgccac tcgtggggcg ccatctggcg gatggactcc
-      721 aggcgccggc tgcagggccc cttctctctc cgcatccgca gcgaatccgg caagacgctg
-      781 gtggccaaac aagtcatccc ggccaactgg aggcccgaca cgaactaccg ttccaacgtc
-      841 cagttccgtt gattgctccg agcttccgat cgatcgacga agacgttgat taattcgg
+    <t>TaEXPB23</t>
+  </si>
+  <si>
+    <t>AY260547.prot</t>
+  </si>
+  <si>
+    <t>Avena sativa</t>
+  </si>
+  <si>
+    <t>OurProteinsource</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>ssaa</t>
+  </si>
+  <si>
+    <t>selenium_GF1</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 amakpgqndk lrhagiidiq  fqrvpcnhpg lnvnfqverg 181 snpnylavlv efanregtvv qmdlmesrng rptgywtamr hswgaiwrmd srrrlqgpfs 241 lrirsesgkt lvakqvipan wrpdtnyrsn vqfr</t>
   </si>
   <si>
-    <t>TaEXPB23</t>
-  </si>
-  <si>
-    <t>AY260547.prot</t>
-  </si>
-  <si>
-    <t>Avena sativa</t>
-  </si>
-  <si>
-    <t>OurProteinsource</t>
-  </si>
-  <si>
-    <t>AAAANNVV</t>
-  </si>
-  <si>
-    <t>AAP</t>
-  </si>
-  <si>
-    <t>SELENIUM_PROTEIN</t>
-  </si>
-  <si>
-    <t>ssaa</t>
-  </si>
-  <si>
-    <t>Test descrition</t>
-  </si>
-  <si>
-    <t>plus</t>
-  </si>
-  <si>
-    <t>AANV</t>
-  </si>
-  <si>
-    <t>selenium_assession</t>
-  </si>
-  <si>
-    <t>CGCCCGGGCAGGTGTACTATCCACTTAGCACAATAAAGAGAGAAAAACAAGGTAAGTTTAGTGAGTGTTCAAATGGCAGAAAACAAAGAAGAAGATGTTAAGCTTGGAGCTAACAAATTCAGAGAAACACAGCCATTAGGAACAGCTGCTCAAACAGACAAAGATTACAAAGAACCACCACCAGCTCCTTTGTTTGAACCAGGG</t>
+    <t>VVNNAAAA</t>
   </si>
 </sst>
 </file>
@@ -530,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,9 +504,13 @@
     <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28" customWidth="1"/>
     <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" customWidth="1"/>
+    <col min="26" max="26" width="27.28515625" customWidth="1"/>
+    <col min="53" max="53" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -591,55 +545,34 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
-        <v>30</v>
-      </c>
       <c r="T1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z1" t="s">
         <v>37</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,59 +607,43 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="AB2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
